--- a/DR. SOLORZANO/20230801220 CERCLAJE # 3.xlsx
+++ b/DR. SOLORZANO/20230801220 CERCLAJE # 3.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\DR. SOLORZANO\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ARCHIVOS COMPARTIDOS ORTOMAX BODEGA\DR. SOLORZANO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02F658CD-0C7D-49BF-A586-466D535EE5F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5336036A-8D69-4185-86D4-038D9826A7C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{36ED2293-D112-45F0-89A7-5CE4FF88CDFA}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{36ED2293-D112-45F0-89A7-5CE4FF88CDFA}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -18,10 +18,21 @@
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">Hoja1!$A$1:$E$54</definedName>
   </definedNames>
-  <calcPr calcId="181029" calcOnSave="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -719,15 +730,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -741,35 +743,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="10" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -788,9 +769,6 @@
     <xf numFmtId="0" fontId="16" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -804,12 +782,6 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="15" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -891,6 +863,45 @@
     <xf numFmtId="49" fontId="21" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -981,9 +992,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - Tema de 2022">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1021,7 +1032,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1127,7 +1138,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1269,7 +1280,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1280,7 +1291,7 @@
   <dimension ref="A1:N55"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A37" zoomScale="60" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+      <selection activeCell="D50" sqref="D50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1677,658 +1688,658 @@
     <row r="2" spans="1:14" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="5"/>
       <c r="B2" s="6"/>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="61" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="D2" s="63" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="9"/>
-      <c r="F2" s="10"/>
-      <c r="G2" s="10"/>
-      <c r="H2" s="10"/>
-      <c r="I2" s="10"/>
-      <c r="J2" s="11"/>
-      <c r="K2" s="12"/>
+      <c r="E2" s="64"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="7"/>
+      <c r="J2" s="8"/>
+      <c r="K2" s="9"/>
     </row>
     <row r="3" spans="1:14" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="13"/>
-      <c r="B3" s="14"/>
-      <c r="C3" s="15"/>
-      <c r="D3" s="16" t="s">
+      <c r="A3" s="10"/>
+      <c r="B3" s="11"/>
+      <c r="C3" s="62"/>
+      <c r="D3" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="17"/>
-      <c r="F3" s="10"/>
-      <c r="G3" s="10"/>
-      <c r="H3" s="10"/>
-      <c r="I3" s="10"/>
-      <c r="J3" s="11"/>
-      <c r="K3" s="12"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="7"/>
+      <c r="J3" s="8"/>
+      <c r="K3" s="9"/>
     </row>
     <row r="4" spans="1:14" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="13"/>
-      <c r="B4" s="14"/>
-      <c r="C4" s="18" t="s">
+      <c r="A4" s="10"/>
+      <c r="B4" s="11"/>
+      <c r="C4" s="65" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="19" t="s">
+      <c r="D4" s="67" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="20"/>
-      <c r="F4" s="10"/>
-      <c r="G4" s="10"/>
-      <c r="H4" s="10"/>
-      <c r="I4" s="10">
+      <c r="E4" s="68"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="7"/>
+      <c r="H4" s="7"/>
+      <c r="I4" s="7">
         <v>12</v>
       </c>
-      <c r="J4" s="11"/>
-      <c r="K4" s="12"/>
+      <c r="J4" s="8"/>
+      <c r="K4" s="9"/>
     </row>
     <row r="5" spans="1:14" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="21"/>
-      <c r="B5" s="22"/>
-      <c r="C5" s="23"/>
-      <c r="D5" s="24" t="s">
+      <c r="A5" s="14"/>
+      <c r="B5" s="15"/>
+      <c r="C5" s="66"/>
+      <c r="D5" s="69" t="s">
         <v>5</v>
       </c>
-      <c r="E5" s="25"/>
-      <c r="F5" s="26"/>
-      <c r="G5" s="26"/>
-      <c r="H5" s="26"/>
-      <c r="I5" s="26"/>
-      <c r="J5" s="26"/>
-      <c r="K5" s="26"/>
-      <c r="L5" s="27"/>
-      <c r="M5" s="27"/>
+      <c r="E5" s="70"/>
+      <c r="F5" s="16"/>
+      <c r="G5" s="16"/>
+      <c r="H5" s="16"/>
+      <c r="I5" s="16"/>
+      <c r="J5" s="16"/>
+      <c r="K5" s="16"/>
+      <c r="L5" s="71"/>
+      <c r="M5" s="71"/>
       <c r="N5" s="4"/>
     </row>
     <row r="6" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="28"/>
-      <c r="B6" s="29"/>
-      <c r="C6" s="29"/>
-      <c r="D6" s="29"/>
-      <c r="E6" s="29"/>
-      <c r="L6" s="27"/>
-      <c r="M6" s="27"/>
+      <c r="A6" s="18"/>
+      <c r="B6" s="19"/>
+      <c r="C6" s="19"/>
+      <c r="D6" s="19"/>
+      <c r="E6" s="19"/>
+      <c r="L6" s="71"/>
+      <c r="M6" s="71"/>
     </row>
     <row r="7" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="30" t="s">
+      <c r="A7" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="31"/>
-      <c r="C7" s="32">
+      <c r="B7" s="21"/>
+      <c r="C7" s="22">
         <f ca="1">NOW()</f>
-        <v>45166.537151851851</v>
-      </c>
-      <c r="D7" s="31" t="s">
+        <v>45397.709596064815</v>
+      </c>
+      <c r="D7" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="E7" s="33">
+      <c r="E7" s="23">
         <v>20230801220</v>
       </c>
-      <c r="L7" s="34"/>
-      <c r="M7" s="34"/>
+      <c r="L7" s="17"/>
+      <c r="M7" s="17"/>
     </row>
     <row r="8" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="35"/>
-      <c r="B8" s="36"/>
-      <c r="C8" s="36"/>
-      <c r="D8" s="36"/>
-      <c r="E8" s="36"/>
-      <c r="L8" s="34"/>
-      <c r="M8" s="34"/>
+      <c r="A8" s="24"/>
+      <c r="B8" s="25"/>
+      <c r="C8" s="25"/>
+      <c r="D8" s="25"/>
+      <c r="E8" s="25"/>
+      <c r="L8" s="17"/>
+      <c r="M8" s="17"/>
     </row>
     <row r="9" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="30" t="s">
+      <c r="A9" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="31"/>
-      <c r="C9" s="37" t="s">
+      <c r="B9" s="21"/>
+      <c r="C9" s="26" t="s">
         <v>59</v>
       </c>
-      <c r="D9" s="38" t="s">
+      <c r="D9" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="E9" s="39"/>
-      <c r="L9" s="34"/>
-      <c r="M9" s="34"/>
+      <c r="E9" s="28"/>
+      <c r="L9" s="17"/>
+      <c r="M9" s="17"/>
     </row>
     <row r="10" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="35"/>
-      <c r="B10" s="36"/>
-      <c r="C10" s="36"/>
-      <c r="D10" s="36"/>
-      <c r="E10" s="36"/>
-      <c r="L10" s="34"/>
-      <c r="M10" s="34"/>
+      <c r="A10" s="24"/>
+      <c r="B10" s="25"/>
+      <c r="C10" s="25"/>
+      <c r="D10" s="25"/>
+      <c r="E10" s="25"/>
+      <c r="L10" s="17"/>
+      <c r="M10" s="17"/>
     </row>
     <row r="11" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="40" t="s">
+      <c r="A11" s="59" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="41"/>
-      <c r="C11" s="42"/>
-      <c r="D11" s="38" t="s">
+      <c r="B11" s="60"/>
+      <c r="C11" s="29"/>
+      <c r="D11" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="E11" s="43" t="s">
+      <c r="E11" s="30" t="s">
         <v>58</v>
       </c>
-      <c r="L11" s="34"/>
-      <c r="M11" s="34"/>
+      <c r="L11" s="17"/>
+      <c r="M11" s="17"/>
     </row>
     <row r="12" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="35"/>
-      <c r="B12" s="36"/>
-      <c r="C12" s="36"/>
-      <c r="D12" s="36"/>
-      <c r="E12" s="36"/>
-      <c r="L12" s="34"/>
-      <c r="M12" s="34"/>
+      <c r="A12" s="24"/>
+      <c r="B12" s="25"/>
+      <c r="C12" s="25"/>
+      <c r="D12" s="25"/>
+      <c r="E12" s="25"/>
+      <c r="L12" s="17"/>
+      <c r="M12" s="17"/>
     </row>
     <row r="13" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="44"/>
-      <c r="B13" s="45"/>
-      <c r="C13" s="46"/>
-      <c r="D13" s="46"/>
-      <c r="E13" s="46"/>
-      <c r="L13" s="47"/>
-      <c r="M13" s="47"/>
+      <c r="A13" s="31"/>
+      <c r="B13" s="32"/>
+      <c r="C13" s="33"/>
+      <c r="D13" s="33"/>
+      <c r="E13" s="33"/>
+      <c r="L13" s="34"/>
+      <c r="M13" s="34"/>
     </row>
     <row r="14" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="48" t="s">
+      <c r="A14" s="35" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="49" t="s">
+      <c r="B14" s="36" t="s">
         <v>13</v>
       </c>
-      <c r="C14" s="49" t="s">
+      <c r="C14" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="D14" s="49" t="s">
+      <c r="D14" s="36" t="s">
         <v>15</v>
       </c>
-      <c r="E14" s="49" t="s">
+      <c r="E14" s="36" t="s">
         <v>16</v>
       </c>
-      <c r="L14" s="47"/>
-      <c r="M14" s="47"/>
+      <c r="L14" s="34"/>
+      <c r="M14" s="34"/>
     </row>
     <row r="15" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="50" t="s">
+      <c r="A15" s="37" t="s">
         <v>17</v>
       </c>
-      <c r="B15" s="51">
+      <c r="B15" s="38">
         <v>210127379</v>
       </c>
-      <c r="C15" s="52" t="s">
+      <c r="C15" s="39" t="s">
         <v>18</v>
       </c>
-      <c r="D15" s="53">
+      <c r="D15" s="40">
         <v>4</v>
       </c>
-      <c r="E15" s="54"/>
-      <c r="L15" s="47"/>
-      <c r="M15" s="47"/>
+      <c r="E15" s="41"/>
+      <c r="L15" s="34"/>
+      <c r="M15" s="34"/>
     </row>
     <row r="16" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="50" t="s">
+      <c r="A16" s="37" t="s">
         <v>19</v>
       </c>
-      <c r="B16" s="51">
+      <c r="B16" s="38">
         <v>201226140</v>
       </c>
-      <c r="C16" s="52" t="s">
+      <c r="C16" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="D16" s="53">
+      <c r="D16" s="40">
         <v>4</v>
       </c>
-      <c r="E16" s="54"/>
-      <c r="L16" s="47"/>
-      <c r="M16" s="47"/>
+      <c r="E16" s="41"/>
+      <c r="L16" s="34"/>
+      <c r="M16" s="34"/>
     </row>
     <row r="17" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="50" t="s">
+      <c r="A17" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="B17" s="51">
+      <c r="B17" s="38">
         <v>210127381</v>
       </c>
-      <c r="C17" s="52" t="s">
+      <c r="C17" s="39" t="s">
         <v>22</v>
       </c>
-      <c r="D17" s="53">
+      <c r="D17" s="40">
         <v>0</v>
       </c>
-      <c r="E17" s="54"/>
-      <c r="L17" s="47"/>
-      <c r="M17" s="47"/>
+      <c r="E17" s="41"/>
+      <c r="L17" s="34"/>
+      <c r="M17" s="34"/>
     </row>
     <row r="18" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="50" t="s">
+      <c r="A18" s="37" t="s">
         <v>23</v>
       </c>
-      <c r="B18" s="51">
+      <c r="B18" s="38">
         <v>201022788</v>
       </c>
-      <c r="C18" s="52" t="s">
+      <c r="C18" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="D18" s="53">
+      <c r="D18" s="40">
         <v>0</v>
       </c>
-      <c r="E18" s="54"/>
-      <c r="L18" s="47"/>
-      <c r="M18" s="47"/>
+      <c r="E18" s="41"/>
+      <c r="L18" s="34"/>
+      <c r="M18" s="34"/>
     </row>
     <row r="19" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="50" t="s">
+      <c r="A19" s="37" t="s">
         <v>25</v>
       </c>
-      <c r="B19" s="51">
+      <c r="B19" s="38">
         <v>210127383</v>
       </c>
-      <c r="C19" s="52" t="s">
+      <c r="C19" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="D19" s="53">
+      <c r="D19" s="40">
         <v>5</v>
       </c>
-      <c r="E19" s="54"/>
-      <c r="L19" s="47"/>
-      <c r="M19" s="47"/>
+      <c r="E19" s="41"/>
+      <c r="L19" s="34"/>
+      <c r="M19" s="34"/>
     </row>
     <row r="20" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="50" t="s">
+      <c r="A20" s="37" t="s">
         <v>27</v>
       </c>
-      <c r="B20" s="51">
+      <c r="B20" s="38">
         <v>210127384</v>
       </c>
-      <c r="C20" s="52" t="s">
+      <c r="C20" s="39" t="s">
         <v>28</v>
       </c>
-      <c r="D20" s="53">
+      <c r="D20" s="40">
         <v>5</v>
       </c>
-      <c r="E20" s="54"/>
-      <c r="L20" s="47"/>
-      <c r="M20" s="47"/>
+      <c r="E20" s="41"/>
+      <c r="L20" s="34"/>
+      <c r="M20" s="34"/>
     </row>
     <row r="21" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="55" t="s">
+      <c r="A21" s="42" t="s">
         <v>29</v>
       </c>
-      <c r="B21" s="55" t="s">
+      <c r="B21" s="42" t="s">
         <v>30</v>
       </c>
-      <c r="C21" s="56" t="s">
+      <c r="C21" s="43" t="s">
         <v>31</v>
       </c>
-      <c r="D21" s="53">
+      <c r="D21" s="40">
         <v>0</v>
       </c>
-      <c r="E21" s="54"/>
-      <c r="L21" s="47"/>
-      <c r="M21" s="47"/>
+      <c r="E21" s="41"/>
+      <c r="L21" s="34"/>
+      <c r="M21" s="34"/>
     </row>
     <row r="22" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="55" t="s">
+      <c r="A22" s="42" t="s">
         <v>32</v>
       </c>
-      <c r="B22" s="55" t="s">
+      <c r="B22" s="42" t="s">
         <v>30</v>
       </c>
-      <c r="C22" s="56" t="s">
+      <c r="C22" s="43" t="s">
         <v>33</v>
       </c>
-      <c r="D22" s="57">
+      <c r="D22" s="44">
         <v>1</v>
       </c>
-      <c r="E22" s="54"/>
-      <c r="L22" s="47"/>
-      <c r="M22" s="47"/>
+      <c r="E22" s="41"/>
+      <c r="L22" s="34"/>
+      <c r="M22" s="34"/>
     </row>
     <row r="23" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="58" t="s">
+      <c r="A23" s="45" t="s">
         <v>34</v>
       </c>
-      <c r="B23" s="58" t="s">
+      <c r="B23" s="45" t="s">
         <v>35</v>
       </c>
-      <c r="C23" s="59" t="s">
+      <c r="C23" s="46" t="s">
         <v>36</v>
       </c>
-      <c r="D23" s="60">
+      <c r="D23" s="47">
         <v>1</v>
       </c>
-      <c r="E23" s="54"/>
-      <c r="L23" s="47"/>
-      <c r="M23" s="47"/>
+      <c r="E23" s="41"/>
+      <c r="L23" s="34"/>
+      <c r="M23" s="34"/>
     </row>
     <row r="24" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="55" t="s">
+      <c r="A24" s="42" t="s">
         <v>37</v>
       </c>
-      <c r="B24" s="55" t="s">
+      <c r="B24" s="42" t="s">
         <v>38</v>
       </c>
-      <c r="C24" s="56" t="s">
+      <c r="C24" s="43" t="s">
         <v>39</v>
       </c>
-      <c r="D24" s="60">
+      <c r="D24" s="47">
         <v>0</v>
       </c>
-      <c r="E24" s="54"/>
-      <c r="L24" s="47"/>
-      <c r="M24" s="47"/>
+      <c r="E24" s="41"/>
+      <c r="L24" s="34"/>
+      <c r="M24" s="34"/>
     </row>
     <row r="25" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="58" t="s">
+      <c r="A25" s="45" t="s">
         <v>40</v>
       </c>
-      <c r="B25" s="58" t="s">
+      <c r="B25" s="45" t="s">
         <v>41</v>
       </c>
-      <c r="C25" s="59" t="s">
+      <c r="C25" s="46" t="s">
         <v>42</v>
       </c>
-      <c r="D25" s="60">
+      <c r="D25" s="47">
         <v>1</v>
       </c>
-      <c r="E25" s="54"/>
-      <c r="L25" s="47"/>
-      <c r="M25" s="47"/>
+      <c r="E25" s="41"/>
+      <c r="L25" s="34"/>
+      <c r="M25" s="34"/>
     </row>
     <row r="26" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="55" t="s">
+      <c r="A26" s="42" t="s">
         <v>43</v>
       </c>
-      <c r="B26" s="55" t="s">
+      <c r="B26" s="42" t="s">
         <v>44</v>
       </c>
-      <c r="C26" s="56" t="s">
+      <c r="C26" s="43" t="s">
         <v>45</v>
       </c>
-      <c r="D26" s="60">
+      <c r="D26" s="47">
         <v>1</v>
       </c>
-      <c r="E26" s="54"/>
-      <c r="L26" s="47"/>
-      <c r="M26" s="47"/>
+      <c r="E26" s="41"/>
+      <c r="L26" s="34"/>
+      <c r="M26" s="34"/>
     </row>
     <row r="27" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="61"/>
+      <c r="A27" s="48"/>
       <c r="B27"/>
       <c r="C27"/>
-      <c r="D27" s="62"/>
-      <c r="L27" s="47"/>
-      <c r="M27" s="47"/>
+      <c r="D27" s="49"/>
+      <c r="L27" s="34"/>
+      <c r="M27" s="34"/>
     </row>
     <row r="28" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="63"/>
-      <c r="B28" s="64"/>
-      <c r="C28" s="65" t="s">
+      <c r="A28" s="50"/>
+      <c r="B28" s="51"/>
+      <c r="C28" s="52" t="s">
         <v>46</v>
       </c>
-      <c r="D28" s="66"/>
-      <c r="L28" s="47"/>
-      <c r="M28" s="47"/>
+      <c r="D28" s="53"/>
+      <c r="L28" s="34"/>
+      <c r="M28" s="34"/>
     </row>
     <row r="29" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="63"/>
-      <c r="B29" s="65" t="s">
+      <c r="A29" s="50"/>
+      <c r="B29" s="52" t="s">
         <v>47</v>
       </c>
-      <c r="C29" s="65" t="s">
+      <c r="C29" s="52" t="s">
         <v>48</v>
       </c>
-      <c r="D29" s="66"/>
-      <c r="L29" s="47"/>
-      <c r="M29" s="47"/>
+      <c r="D29" s="53"/>
+      <c r="L29" s="34"/>
+      <c r="M29" s="34"/>
     </row>
     <row r="30" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="63"/>
-      <c r="B30" s="64">
+      <c r="A30" s="50"/>
+      <c r="B30" s="51">
         <v>1</v>
       </c>
-      <c r="C30" s="67" t="s">
+      <c r="C30" s="54" t="s">
         <v>49</v>
       </c>
-      <c r="D30" s="66"/>
-      <c r="L30" s="47"/>
-      <c r="M30" s="47"/>
+      <c r="D30" s="53"/>
+      <c r="L30" s="34"/>
+      <c r="M30" s="34"/>
     </row>
     <row r="31" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="63"/>
-      <c r="B31" s="64">
+      <c r="A31" s="50"/>
+      <c r="B31" s="51">
         <v>1</v>
       </c>
-      <c r="C31" s="67" t="s">
+      <c r="C31" s="54" t="s">
         <v>50</v>
       </c>
-      <c r="D31" s="66"/>
-      <c r="L31" s="47"/>
-      <c r="M31" s="47"/>
+      <c r="D31" s="53"/>
+      <c r="L31" s="34"/>
+      <c r="M31" s="34"/>
     </row>
     <row r="32" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="63"/>
-      <c r="B32" s="64">
+      <c r="A32" s="50"/>
+      <c r="B32" s="51">
         <v>1</v>
       </c>
-      <c r="C32" s="67" t="s">
+      <c r="C32" s="54" t="s">
         <v>51</v>
       </c>
-      <c r="D32" s="66"/>
-      <c r="L32" s="47"/>
-      <c r="M32" s="47"/>
+      <c r="D32" s="53"/>
+      <c r="L32" s="34"/>
+      <c r="M32" s="34"/>
     </row>
     <row r="33" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="63"/>
-      <c r="B33" s="64">
+      <c r="A33" s="50"/>
+      <c r="B33" s="51">
         <v>3</v>
       </c>
-      <c r="C33" s="67" t="s">
+      <c r="C33" s="54" t="s">
         <v>52</v>
       </c>
-      <c r="D33" s="66"/>
-      <c r="L33" s="47"/>
-      <c r="M33" s="47"/>
+      <c r="D33" s="53"/>
+      <c r="L33" s="34"/>
+      <c r="M33" s="34"/>
     </row>
     <row r="34" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="63"/>
-      <c r="B34" s="65">
+      <c r="A34" s="50"/>
+      <c r="B34" s="52">
         <f>SUM(B30:B33)</f>
         <v>6</v>
       </c>
-      <c r="C34" s="67"/>
-      <c r="D34" s="66"/>
-      <c r="L34" s="47"/>
-      <c r="M34" s="47"/>
+      <c r="C34" s="54"/>
+      <c r="D34" s="53"/>
+      <c r="L34" s="34"/>
+      <c r="M34" s="34"/>
     </row>
     <row r="35" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="63"/>
-      <c r="B35" s="68"/>
-      <c r="C35" s="69"/>
-      <c r="D35" s="66"/>
-      <c r="L35" s="47"/>
-      <c r="M35" s="47"/>
+      <c r="A35" s="50"/>
+      <c r="B35" s="55"/>
+      <c r="C35" s="56"/>
+      <c r="D35" s="53"/>
+      <c r="L35" s="34"/>
+      <c r="M35" s="34"/>
     </row>
     <row r="36" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="63"/>
-      <c r="B36" s="64">
+      <c r="A36" s="50"/>
+      <c r="B36" s="51">
         <v>1</v>
       </c>
-      <c r="C36" s="67" t="s">
+      <c r="C36" s="54" t="s">
         <v>60</v>
       </c>
-      <c r="D36" s="66"/>
-      <c r="L36" s="47"/>
-      <c r="M36" s="47"/>
+      <c r="D36" s="53"/>
+      <c r="L36" s="34"/>
+      <c r="M36" s="34"/>
     </row>
     <row r="37" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="63"/>
-      <c r="B37" s="64">
+      <c r="A37" s="50"/>
+      <c r="B37" s="51">
         <v>1</v>
       </c>
-      <c r="C37" s="67" t="s">
+      <c r="C37" s="54" t="s">
         <v>61</v>
       </c>
-      <c r="D37" s="66"/>
-      <c r="L37" s="47"/>
-      <c r="M37" s="47"/>
+      <c r="D37" s="53"/>
+      <c r="L37" s="34"/>
+      <c r="M37" s="34"/>
     </row>
     <row r="38" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="63"/>
-      <c r="B38" s="64">
+      <c r="A38" s="50"/>
+      <c r="B38" s="51">
         <v>2</v>
       </c>
-      <c r="C38" s="67" t="s">
+      <c r="C38" s="54" t="s">
         <v>62</v>
       </c>
-      <c r="D38" s="66"/>
-      <c r="L38" s="47"/>
-      <c r="M38" s="47"/>
+      <c r="D38" s="53"/>
+      <c r="L38" s="34"/>
+      <c r="M38" s="34"/>
     </row>
     <row r="39" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="63"/>
-      <c r="B39" s="65">
+      <c r="A39" s="50"/>
+      <c r="B39" s="52">
         <f>SUM(B36:B38)</f>
         <v>4</v>
       </c>
-      <c r="C39" s="67"/>
-      <c r="D39" s="66"/>
-      <c r="L39" s="47"/>
-      <c r="M39" s="47"/>
+      <c r="C39" s="54"/>
+      <c r="D39" s="53"/>
+      <c r="L39" s="34"/>
+      <c r="M39" s="34"/>
     </row>
     <row r="40" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="63"/>
-      <c r="B40" s="45"/>
-      <c r="C40" s="46"/>
-      <c r="D40" s="66"/>
-      <c r="L40" s="47"/>
-      <c r="M40" s="47"/>
+      <c r="A40" s="50"/>
+      <c r="B40" s="32"/>
+      <c r="C40" s="33"/>
+      <c r="D40" s="53"/>
+      <c r="L40" s="34"/>
+      <c r="M40" s="34"/>
     </row>
     <row r="41" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="63"/>
-      <c r="B41" s="66"/>
-      <c r="C41" s="66"/>
-      <c r="D41" s="66"/>
-      <c r="L41" s="47"/>
-      <c r="M41" s="47"/>
+      <c r="A41" s="50"/>
+      <c r="B41" s="53"/>
+      <c r="C41" s="53"/>
+      <c r="D41" s="53"/>
+      <c r="L41" s="34"/>
+      <c r="M41" s="34"/>
     </row>
     <row r="42" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B42" s="70" t="s">
+      <c r="B42" s="57" t="s">
         <v>53</v>
       </c>
-      <c r="C42" s="71"/>
-      <c r="D42" s="66"/>
-      <c r="L42" s="47"/>
-      <c r="M42" s="47"/>
+      <c r="C42" s="58"/>
+      <c r="D42" s="53"/>
+      <c r="L42" s="34"/>
+      <c r="M42" s="34"/>
     </row>
     <row r="43" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B43" s="63"/>
-      <c r="D43" s="66"/>
-      <c r="L43" s="47"/>
-      <c r="M43" s="47"/>
+      <c r="B43" s="50"/>
+      <c r="D43" s="53"/>
+      <c r="L43" s="34"/>
+      <c r="M43" s="34"/>
     </row>
     <row r="44" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B44" s="63"/>
-      <c r="D44" s="66"/>
-      <c r="L44" s="47"/>
-      <c r="M44" s="47"/>
+      <c r="B44" s="50"/>
+      <c r="D44" s="53"/>
+      <c r="L44" s="34"/>
+      <c r="M44" s="34"/>
     </row>
     <row r="45" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B45" s="70" t="s">
+      <c r="B45" s="57" t="s">
         <v>54</v>
       </c>
-      <c r="C45" s="71"/>
-      <c r="D45" s="66"/>
-      <c r="L45" s="47"/>
-      <c r="M45" s="47"/>
+      <c r="C45" s="58"/>
+      <c r="D45" s="53"/>
+      <c r="L45" s="34"/>
+      <c r="M45" s="34"/>
     </row>
     <row r="46" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B46" s="63"/>
-      <c r="D46" s="66"/>
-      <c r="L46" s="47"/>
-      <c r="M46" s="47"/>
+      <c r="B46" s="50"/>
+      <c r="D46" s="53"/>
+      <c r="L46" s="34"/>
+      <c r="M46" s="34"/>
     </row>
     <row r="47" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B47" s="63"/>
-      <c r="D47" s="66"/>
-      <c r="L47" s="47"/>
-      <c r="M47" s="47"/>
+      <c r="B47" s="50"/>
+      <c r="D47" s="53"/>
+      <c r="L47" s="34"/>
+      <c r="M47" s="34"/>
     </row>
     <row r="48" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B48" s="70" t="s">
+      <c r="B48" s="57" t="s">
         <v>55</v>
       </c>
-      <c r="C48" s="71"/>
-      <c r="D48" s="66"/>
-      <c r="L48" s="47"/>
-      <c r="M48" s="47"/>
+      <c r="C48" s="58"/>
+      <c r="D48" s="53"/>
+      <c r="L48" s="34"/>
+      <c r="M48" s="34"/>
     </row>
     <row r="49" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B49" s="63"/>
-      <c r="D49" s="66"/>
-      <c r="L49" s="47"/>
-      <c r="M49" s="47"/>
+      <c r="B49" s="50"/>
+      <c r="D49" s="53"/>
+      <c r="L49" s="34"/>
+      <c r="M49" s="34"/>
     </row>
     <row r="50" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B50" s="63"/>
-      <c r="D50" s="66"/>
-      <c r="L50" s="47"/>
-      <c r="M50" s="47"/>
+      <c r="B50" s="50"/>
+      <c r="D50" s="53"/>
+      <c r="L50" s="34"/>
+      <c r="M50" s="34"/>
     </row>
     <row r="51" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B51" s="70" t="s">
+      <c r="B51" s="57" t="s">
         <v>56</v>
       </c>
-      <c r="C51" s="71"/>
-      <c r="D51" s="66"/>
-      <c r="L51" s="47"/>
-      <c r="M51" s="47"/>
+      <c r="C51" s="58"/>
+      <c r="D51" s="53"/>
+      <c r="L51" s="34"/>
+      <c r="M51" s="34"/>
     </row>
     <row r="52" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B52" s="63"/>
-      <c r="D52" s="66"/>
-      <c r="L52" s="47"/>
-      <c r="M52" s="47"/>
+      <c r="B52" s="50"/>
+      <c r="D52" s="53"/>
+      <c r="L52" s="34"/>
+      <c r="M52" s="34"/>
     </row>
     <row r="53" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B53" s="63"/>
-      <c r="D53" s="66"/>
-      <c r="L53" s="47"/>
-      <c r="M53" s="47"/>
+      <c r="B53" s="50"/>
+      <c r="D53" s="53"/>
+      <c r="L53" s="34"/>
+      <c r="M53" s="34"/>
     </row>
     <row r="54" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B54" s="70" t="s">
+      <c r="B54" s="57" t="s">
         <v>57</v>
       </c>
-      <c r="C54" s="71"/>
-      <c r="D54" s="66"/>
-      <c r="L54" s="47"/>
-      <c r="M54" s="47"/>
+      <c r="C54" s="58"/>
+      <c r="D54" s="53"/>
+      <c r="L54" s="34"/>
+      <c r="M54" s="34"/>
     </row>
     <row r="55" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="63"/>
-      <c r="B55" s="66"/>
-      <c r="C55" s="66"/>
-      <c r="D55" s="66"/>
-      <c r="L55" s="47"/>
-      <c r="M55" s="47"/>
+      <c r="A55" s="50"/>
+      <c r="B55" s="53"/>
+      <c r="C55" s="53"/>
+      <c r="D55" s="53"/>
+      <c r="L55" s="34"/>
+      <c r="M55" s="34"/>
     </row>
   </sheetData>
   <mergeCells count="7">
+    <mergeCell ref="L5:M6"/>
     <mergeCell ref="A11:B11"/>
     <mergeCell ref="C2:C3"/>
     <mergeCell ref="D2:E2"/>
     <mergeCell ref="C4:C5"/>
     <mergeCell ref="D4:E4"/>
     <mergeCell ref="D5:E5"/>
-    <mergeCell ref="L5:M6"/>
   </mergeCells>
   <conditionalFormatting sqref="C21">
     <cfRule type="duplicateValues" dxfId="1" priority="1"/>
